--- a/wide/synthetic_dataset_20.xlsx
+++ b/wide/synthetic_dataset_20.xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
-  <si>
-    <t>not a date</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,639 +380,632 @@
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1">
-        <v>45922</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>45857</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45864</v>
       </c>
       <c r="C1" s="1">
-        <v>45936</v>
+        <v>45871</v>
       </c>
       <c r="D1" s="1">
-        <v>45943</v>
+        <v>45878</v>
       </c>
       <c r="E1" s="1">
-        <v>45950</v>
+        <v>45885</v>
       </c>
       <c r="F1" s="1">
-        <v>45957</v>
+        <v>45892</v>
       </c>
       <c r="G1" s="1">
-        <v>45964</v>
+        <v>45899</v>
       </c>
       <c r="H1" s="1">
-        <v>45971</v>
+        <v>45906</v>
       </c>
       <c r="I1" s="1">
-        <v>45978</v>
+        <v>45913</v>
       </c>
       <c r="J1" s="1">
-        <v>45985</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
+        <v>45920</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45927</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45934</v>
       </c>
       <c r="M1" s="1">
-        <v>46006</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>46027</v>
-      </c>
+        <v>45941</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45948</v>
+      </c>
+      <c r="O1" s="1">
+        <v>45955</v>
+      </c>
+      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="1">
-        <v>46041</v>
-      </c>
-      <c r="S1" s="1">
-        <v>46048</v>
-      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="1">
-        <v>46055</v>
-      </c>
-      <c r="U1" s="2"/>
+        <v>45990</v>
+      </c>
+      <c r="U1" s="1">
+        <v>45997</v>
+      </c>
       <c r="V1" s="1">
-        <v>46069</v>
+        <v>46004</v>
       </c>
       <c r="W1" s="1">
-        <v>46076</v>
+        <v>46011</v>
       </c>
       <c r="X1" s="1">
-        <v>46083</v>
+        <v>46018</v>
       </c>
       <c r="Y1" s="1">
-        <v>46090</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>46104</v>
-      </c>
+        <v>46025</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>46032</v>
+      </c>
+      <c r="AA1" s="2"/>
       <c r="AB1" s="1">
-        <v>46111</v>
+        <v>46046</v>
       </c>
       <c r="AC1" s="1">
-        <v>46118</v>
+        <v>46053</v>
       </c>
       <c r="AD1" s="1">
-        <v>46125</v>
-      </c>
-      <c r="AE1" s="2"/>
+        <v>46060</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>46067</v>
+      </c>
       <c r="AF1" s="1">
-        <v>46139</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>46146</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="2"/>
+        <v>46074</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="1">
+        <v>46095</v>
+      </c>
       <c r="AJ1" s="1">
-        <v>46167</v>
+        <v>46102</v>
       </c>
       <c r="AK1" s="1">
-        <v>46174</v>
+        <v>46109</v>
       </c>
       <c r="AL1" s="1">
-        <v>46181</v>
+        <v>46116</v>
       </c>
       <c r="AM1" s="1">
-        <v>46188</v>
+        <v>46123</v>
       </c>
       <c r="AN1" s="1">
-        <v>46195</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>46202</v>
-      </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
+        <v>46130</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1">
+        <v>46144</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>46151</v>
+      </c>
       <c r="AR1" s="1">
-        <v>46223</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>1</v>
+        <v>46158</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>46165</v>
       </c>
       <c r="AT1" s="1">
-        <v>46237</v>
+        <v>46172</v>
       </c>
       <c r="AU1" s="1">
-        <v>46244</v>
+        <v>46179</v>
       </c>
       <c r="AV1" s="1">
-        <v>46251</v>
+        <v>46186</v>
       </c>
       <c r="AW1" s="1">
-        <v>46258</v>
-      </c>
-      <c r="AX1" s="2"/>
+        <v>46193</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>46200</v>
+      </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
         <v>127</v>
       </c>
-      <c r="B2">
-        <v>164</v>
-      </c>
-      <c r="C2">
-        <v>171</v>
-      </c>
       <c r="E2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="F2">
-        <v>154</v>
-      </c>
-      <c r="G2">
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="I2">
-        <v>168</v>
+        <v>141</v>
+      </c>
+      <c r="J2">
+        <v>122</v>
       </c>
       <c r="K2">
+        <v>194</v>
+      </c>
+      <c r="L2">
+        <v>68</v>
+      </c>
+      <c r="M2">
+        <v>166</v>
+      </c>
+      <c r="N2">
+        <v>65</v>
+      </c>
+      <c r="O2">
+        <v>55</v>
+      </c>
+      <c r="P2">
+        <v>88</v>
+      </c>
+      <c r="Q2">
         <v>80</v>
       </c>
-      <c r="L2">
-        <v>121</v>
-      </c>
-      <c r="N2">
-        <v>72</v>
-      </c>
-      <c r="O2">
-        <v>117</v>
-      </c>
-      <c r="P2">
-        <v>156</v>
-      </c>
-      <c r="Q2">
+      <c r="R2">
+        <v>150</v>
+      </c>
+      <c r="S2">
+        <v>105</v>
+      </c>
+      <c r="T2">
+        <v>128</v>
+      </c>
+      <c r="V2">
+        <v>53</v>
+      </c>
+      <c r="W2">
+        <v>104</v>
+      </c>
+      <c r="Y2">
+        <v>118</v>
+      </c>
+      <c r="Z2">
+        <v>89</v>
+      </c>
+      <c r="AA2">
+        <v>63</v>
+      </c>
+      <c r="AB2">
+        <v>133</v>
+      </c>
+      <c r="AC2">
+        <v>196</v>
+      </c>
+      <c r="AE2">
         <v>68</v>
       </c>
-      <c r="R2">
-        <v>105</v>
-      </c>
-      <c r="S2">
-        <v>171</v>
-      </c>
-      <c r="T2">
-        <v>78</v>
-      </c>
-      <c r="U2">
-        <v>140</v>
-      </c>
-      <c r="V2">
-        <v>97</v>
-      </c>
-      <c r="W2">
+      <c r="AF2">
+        <v>86</v>
+      </c>
+      <c r="AG2">
+        <v>144</v>
+      </c>
+      <c r="AH2">
+        <v>162</v>
+      </c>
+      <c r="AK2">
+        <v>61</v>
+      </c>
+      <c r="AM2">
+        <v>116</v>
+      </c>
+      <c r="AN2">
+        <v>113</v>
+      </c>
+      <c r="AP2">
         <v>176</v>
       </c>
-      <c r="Y2">
-        <v>54</v>
-      </c>
-      <c r="Z2">
-        <v>120</v>
-      </c>
-      <c r="AA2">
-        <v>177</v>
-      </c>
-      <c r="AB2">
-        <v>141</v>
-      </c>
-      <c r="AC2">
-        <v>78</v>
-      </c>
-      <c r="AD2">
-        <v>143</v>
-      </c>
-      <c r="AE2">
-        <v>103</v>
-      </c>
-      <c r="AF2">
-        <v>51</v>
-      </c>
-      <c r="AG2">
-        <v>112</v>
-      </c>
-      <c r="AI2">
-        <v>167</v>
-      </c>
-      <c r="AK2">
-        <v>149</v>
-      </c>
-      <c r="AL2">
-        <v>96</v>
-      </c>
-      <c r="AM2">
-        <v>193</v>
-      </c>
-      <c r="AO2">
-        <v>170</v>
-      </c>
       <c r="AQ2">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="AR2">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="AS2">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="AT2">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="AU2">
+        <v>173</v>
       </c>
       <c r="AW2">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AX2">
-        <v>172</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N3">
         <v>9</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
         <v>3</v>
       </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>8</v>
-      </c>
-      <c r="Z3">
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
         <v>3</v>
       </c>
-      <c r="AA3">
-        <v>10</v>
-      </c>
-      <c r="AB3">
-        <v>8</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>6</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
       <c r="AI3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ3">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
       </c>
       <c r="AM3">
         <v>4</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AQ3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AS3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT3">
         <v>8</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV3">
-        <v>10</v>
-      </c>
-      <c r="AW3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4">
-        <v>146</v>
-      </c>
-      <c r="C4">
-        <v>108</v>
-      </c>
-      <c r="D4">
+        <v>193</v>
+      </c>
+      <c r="B4">
+        <v>130</v>
+      </c>
+      <c r="E4">
         <v>182</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>193</v>
+      </c>
+      <c r="K4">
+        <v>126</v>
+      </c>
+      <c r="L4">
+        <v>92</v>
+      </c>
+      <c r="N4">
+        <v>97</v>
+      </c>
+      <c r="O4">
+        <v>61</v>
+      </c>
+      <c r="P4">
+        <v>86</v>
+      </c>
+      <c r="R4">
+        <v>104</v>
+      </c>
+      <c r="T4">
+        <v>181</v>
+      </c>
+      <c r="U4">
         <v>55</v>
       </c>
-      <c r="F4">
+      <c r="V4">
+        <v>112</v>
+      </c>
+      <c r="W4">
+        <v>96</v>
+      </c>
+      <c r="Y4">
+        <v>127</v>
+      </c>
+      <c r="Z4">
+        <v>81</v>
+      </c>
+      <c r="AC4">
+        <v>174</v>
+      </c>
+      <c r="AD4">
+        <v>184</v>
+      </c>
+      <c r="AE4">
+        <v>155</v>
+      </c>
+      <c r="AF4">
         <v>161</v>
       </c>
-      <c r="G4">
-        <v>65</v>
-      </c>
-      <c r="I4">
-        <v>104</v>
-      </c>
-      <c r="J4">
-        <v>120</v>
-      </c>
-      <c r="K4">
-        <v>144</v>
-      </c>
-      <c r="L4">
-        <v>197</v>
-      </c>
-      <c r="M4">
-        <v>185</v>
-      </c>
-      <c r="N4">
-        <v>181</v>
-      </c>
-      <c r="O4">
-        <v>63</v>
-      </c>
-      <c r="P4">
-        <v>132</v>
-      </c>
-      <c r="Q4">
-        <v>66</v>
-      </c>
-      <c r="R4">
-        <v>154</v>
-      </c>
-      <c r="S4">
-        <v>165</v>
-      </c>
-      <c r="T4">
-        <v>107</v>
-      </c>
-      <c r="U4">
-        <v>174</v>
-      </c>
-      <c r="V4">
-        <v>115</v>
-      </c>
-      <c r="W4">
-        <v>148</v>
-      </c>
-      <c r="X4">
-        <v>59</v>
-      </c>
-      <c r="Y4">
-        <v>114</v>
-      </c>
-      <c r="Z4">
+      <c r="AG4">
         <v>170</v>
       </c>
-      <c r="AA4">
-        <v>147</v>
-      </c>
-      <c r="AB4">
-        <v>77</v>
-      </c>
-      <c r="AC4">
-        <v>178</v>
-      </c>
-      <c r="AD4">
+      <c r="AH4">
+        <v>193</v>
+      </c>
+      <c r="AI4">
         <v>103</v>
       </c>
-      <c r="AG4">
-        <v>156</v>
-      </c>
-      <c r="AJ4">
-        <v>63</v>
-      </c>
       <c r="AK4">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="AL4">
         <v>153</v>
       </c>
       <c r="AM4">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="AN4">
+        <v>170</v>
       </c>
       <c r="AO4">
-        <v>59</v>
-      </c>
-      <c r="AP4">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="AQ4">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="AR4">
-        <v>127</v>
-      </c>
-      <c r="AS4">
-        <v>86</v>
+        <v>63</v>
+      </c>
+      <c r="AT4">
+        <v>57</v>
       </c>
       <c r="AU4">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AV4">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AW4">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AX4">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="M5">
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
         <v>8</v>
       </c>
-      <c r="N5">
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
+      <c r="AC5">
+        <v>9</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="AG5">
         <v>10</v>
       </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>8</v>
-      </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
-      <c r="V5">
-        <v>7</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>5</v>
-      </c>
-      <c r="AC5">
-        <v>3</v>
-      </c>
-      <c r="AE5">
-        <v>9</v>
-      </c>
-      <c r="AF5">
+      <c r="AI5">
         <v>4</v>
       </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>3</v>
-      </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AK5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL5">
         <v>5</v>
       </c>
       <c r="AM5">
-        <v>10</v>
-      </c>
-      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
+        <v>7</v>
+      </c>
+      <c r="AR5">
         <v>3</v>
       </c>
-      <c r="AO5">
-        <v>8</v>
-      </c>
-      <c r="AP5">
+      <c r="AS5">
+        <v>7</v>
+      </c>
+      <c r="AT5">
+        <v>9</v>
+      </c>
+      <c r="AU5">
+        <v>9</v>
+      </c>
+      <c r="AV5">
         <v>4</v>
       </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>8</v>
-      </c>
-      <c r="AT5">
-        <v>5</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>5</v>
-      </c>
       <c r="AW5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
